--- a/biology/Médecine/François_Chopart/François_Chopart.xlsx
+++ b/biology/Médecine/François_Chopart/François_Chopart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chopart</t>
+          <t>François_Chopart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Chopart, né le 30 octobre 1743 à Paris et mort le 9 juin 1795 (à 51 ans) dans la même ville, est un chirurgien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chopart</t>
+          <t>François_Chopart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de François Turlure et de Marie-Anne Chopart, merciers à Paris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de François Turlure et de Marie-Anne Chopart, merciers à Paris.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chopart</t>
+          <t>François_Chopart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le nom de sa mère, il étudie la chirurgie avec Antoine Petit, devint maître ès arts en 1761, fut interne à la Pitié, puis à Bicêtre.
 Chirurgien en chef de l'Hôpital de la Charité en 1782, professeur de pathologie interne en 1789, chirurgien en chef à l'École de médecine en 1790. Il succède en 1782 à Toussaint Bordenave à la chaire de Physiologie. Lors d'un voyage à Londres, il fit la connaissance de John Hunter avec lequel il entretint une abondante correspondance.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chopart</t>
+          <t>François_Chopart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">François Chopart est notamment connu pour avoir mis au point une technique d'amputation, longtemps appliquée sur les champs de bataille, consistant à sectionner le pied non pas à travers l'os, mais en suivant les articulations talo-naviculaire et calcanéo-cuboïdienne (qui ont d'ailleurs été regroupées sous la dénomination d'articulation de Chopart en hommage au chirurgien).
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chopart</t>
+          <t>François_Chopart</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Essai sur les loupes, 1767
 Mémoire sur les contrecoups dans les lésions de la tête, 1768
